--- a/利润表/000960.xlsx
+++ b/利润表/000960.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>885094718.96</v>
+        <v>849350128.1799999</v>
       </c>
       <c r="P2" t="n">
-        <v>39603061814.54</v>
+        <v>42887232439.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>38381291885.18</v>
+        <v>41521780358.8</v>
       </c>
       <c r="R2" t="n">
-        <v>15.6298165703</v>
+        <v>8.1823417591</v>
       </c>
       <c r="S2" t="n">
-        <v>36093686798.35</v>
+        <v>39109365895.91</v>
       </c>
       <c r="T2" t="n">
-        <v>36093686798.35</v>
+        <v>39109365895.91</v>
       </c>
       <c r="U2" t="n">
-        <v>16.6783348605</v>
+        <v>8.3551428659</v>
       </c>
       <c r="V2" t="n">
-        <v>177469349.34</v>
+        <v>198948372.4</v>
       </c>
       <c r="W2" t="n">
-        <v>975283703.36</v>
+        <v>1213474541.84</v>
       </c>
       <c r="X2" t="n">
-        <v>801393169.6900001</v>
+        <v>684381312.9299999</v>
       </c>
       <c r="Y2" t="n">
-        <v>1345150216.77</v>
+        <v>1361235026.37</v>
       </c>
       <c r="Z2" t="n">
-        <v>1306825118.95</v>
+        <v>1305562660.47</v>
       </c>
       <c r="AA2" t="n">
-        <v>179903285.19</v>
+        <v>196469033.84</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>198541219.42</v>
+        <v>171082795.54</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>15.0857641909</v>
+        <v>8.2927189835</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.146449377173</v>
+        <v>1.195763075341</v>
       </c>
       <c r="AR2" t="n">
-        <v>24.812880062357</v>
+        <v>-4.04</v>
       </c>
       <c r="AS2" t="n">
-        <v>738454661.61</v>
+        <v>823538178.86</v>
       </c>
       <c r="AT2" t="n">
-        <v>-19.618511269903</v>
+        <v>11.52183359023</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/000960.xlsx
+++ b/利润表/000960.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>849350128.1799999</v>
+        <v>885094718.96</v>
       </c>
       <c r="P2" t="n">
-        <v>42887232439.68</v>
+        <v>39603061814.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>41521780358.8</v>
+        <v>38381291885.18</v>
       </c>
       <c r="R2" t="n">
-        <v>8.1823417591</v>
+        <v>15.6298165703</v>
       </c>
       <c r="S2" t="n">
-        <v>39109365895.91</v>
+        <v>36093686798.35</v>
       </c>
       <c r="T2" t="n">
-        <v>39109365895.91</v>
+        <v>36093686798.35</v>
       </c>
       <c r="U2" t="n">
-        <v>8.3551428659</v>
+        <v>16.6783348605</v>
       </c>
       <c r="V2" t="n">
-        <v>198948372.4</v>
+        <v>177469349.34</v>
       </c>
       <c r="W2" t="n">
-        <v>1213474541.84</v>
+        <v>975283703.36</v>
       </c>
       <c r="X2" t="n">
-        <v>684381312.9299999</v>
+        <v>801393169.6900001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1361235026.37</v>
+        <v>1345150216.77</v>
       </c>
       <c r="Z2" t="n">
-        <v>1305562660.47</v>
+        <v>1306825118.95</v>
       </c>
       <c r="AA2" t="n">
-        <v>196469033.84</v>
+        <v>179903285.19</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>171082795.54</v>
+        <v>198541219.42</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>8.2927189835</v>
+        <v>15.0857641909</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.195763075341</v>
+        <v>3.146449377173</v>
       </c>
       <c r="AR2" t="n">
-        <v>-4.04</v>
+        <v>24.812880062357</v>
       </c>
       <c r="AS2" t="n">
-        <v>823538178.86</v>
+        <v>738454661.61</v>
       </c>
       <c r="AT2" t="n">
-        <v>11.52183359023</v>
+        <v>-19.618511269903</v>
       </c>
     </row>
   </sheetData>
